--- a/tools/Notes/Races 5.4.5 vs 6.0.0.xlsx
+++ b/tools/Notes/Races 5.4.5 vs 6.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0903EC-272C-4A30-B434-2791F6ECBB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AEF957-2326-47AF-97BE-93E92A9EBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEB8FFCF-9605-4B76-9A6A-738461B6C79B}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G20" si="4">IF(A15="Khajiit",15,6+(G2-100)*0.1)</f>
+        <f>IF(A15="Khajiit",15,IF(A15="Argonian",10,6+(G2-100)*0.1))</f>
         <v>5</v>
       </c>
       <c r="H15">
@@ -1125,8 +1125,8 @@
         <v>0.8</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" ref="G16:G24" si="4">IF(A16="Khajiit",15,IF(A16="Argonian",10,6+(G3-100)*0.1))</f>
+        <v>10</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H24" si="5">0.36 + (H3-100)*0.001</f>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="L16">
         <f t="shared" ref="L16:L24" si="7">G16-B16</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <f>H16/C16-1</f>
@@ -1315,7 +1315,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G21">
-        <f>IF(A21="Khajiit",15,6+(G8-100)*0.1)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H21">
@@ -1353,7 +1353,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G24" si="9">IF(A22="Khajiit",15,6+(G9-100)*0.1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H22">
@@ -1391,7 +1391,7 @@
         <v>0.85</v>
       </c>
       <c r="G23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H23">
@@ -1429,7 +1429,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H24">
@@ -1493,7 +1493,7 @@
         <v>105</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L37" si="10">G29-B29</f>
+        <f t="shared" ref="L29:L37" si="9">G29-B29</f>
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>85</v>
       </c>
       <c r="L30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
         <v>90</v>
       </c>
       <c r="L31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>100</v>
       </c>
       <c r="L32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>110</v>
       </c>
       <c r="L33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
         <v>105</v>
       </c>
       <c r="L34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>115</v>
       </c>
       <c r="L35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>125</v>
       </c>
       <c r="L36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>120</v>
       </c>
       <c r="L37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
     </row>
